--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_5.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_5.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_5.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-276834.4728682036</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8732945.182477079</v>
+        <v>3268745.523325153</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33139445.582195</v>
+        <v>27675245.92304309</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.281178900569931e-10</v>
+        <v>3054401.730531178</v>
       </c>
     </row>
     <row r="11">
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11144,10 +11144,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,31 +22570,31 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J2" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K2" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L2" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M2" t="n">
         <v>281.0224045372727</v>
       </c>
       <c r="N2" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P2" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q2" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R2" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S2" t="n">
         <v>236.785106778059</v>
@@ -22646,13 +22646,13 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I3" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J3" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K3" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>169.0363433314465</v>
@@ -22667,13 +22667,13 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P3" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R3" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S3" t="n">
         <v>195.63287444794</v>
@@ -22728,28 +22728,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J4" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K4" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M4" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N4" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O4" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P4" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q4" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R4" t="n">
         <v>211.6331360021768</v>
@@ -22807,31 +22807,31 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J5" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K5" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M5" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P5" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q5" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R5" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S5" t="n">
         <v>236.785106778059</v>
@@ -22886,10 +22886,10 @@
         <v>121.4173036</v>
       </c>
       <c r="J6" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K6" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>169.0363433314465</v>
@@ -22904,10 +22904,10 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P6" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R6" t="n">
         <v>177.728994836036</v>
@@ -22965,28 +22965,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J7" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K7" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L7" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M7" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N7" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O7" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P7" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q7" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R7" t="n">
         <v>211.6331360021768</v>
@@ -23044,31 +23044,31 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
         <v>236.785106778059</v>
@@ -23120,16 +23120,16 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>173.4035213848624</v>
@@ -23138,16 +23138,16 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -23202,28 +23202,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J10" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K10" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L10" t="n">
         <v>164.5593050631107</v>
       </c>
       <c r="M10" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N10" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O10" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P10" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q10" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R10" t="n">
         <v>211.6331360021768</v>
@@ -23281,31 +23281,31 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J11" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K11" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L11" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M11" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P11" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q11" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R11" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S11" t="n">
         <v>236.785106778059</v>
@@ -23357,10 +23357,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I12" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J12" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K12" t="n">
         <v>168.166555548718</v>
@@ -23372,19 +23372,19 @@
         <v>173.4035213848624</v>
       </c>
       <c r="N12" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R12" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S12" t="n">
         <v>195.63287444794</v>
@@ -23439,28 +23439,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J13" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K13" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L13" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M13" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N13" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O13" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P13" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q13" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R13" t="n">
         <v>211.6331360021768</v>
@@ -23518,13 +23518,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J14" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K14" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L14" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M14" t="n">
         <v>281.0224045372727</v>
@@ -23533,16 +23533,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P14" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q14" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R14" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S14" t="n">
         <v>236.785106778059</v>
@@ -23594,16 +23594,16 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I15" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J15" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K15" t="n">
         <v>168.166555548718</v>
       </c>
       <c r="L15" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>173.4035213848624</v>
@@ -23615,13 +23615,13 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R15" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S15" t="n">
         <v>195.63287444794</v>
@@ -23676,28 +23676,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J16" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K16" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L16" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M16" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N16" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O16" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P16" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q16" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R16" t="n">
         <v>211.6331360021768</v>
@@ -23755,31 +23755,31 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J17" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K17" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L17" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M17" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P17" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q17" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R17" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S17" t="n">
         <v>236.785106778059</v>
@@ -23831,13 +23831,13 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I18" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J18" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K18" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>169.0363433314465</v>
@@ -23852,13 +23852,13 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R18" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S18" t="n">
         <v>195.63287444794</v>
@@ -23913,28 +23913,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J19" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K19" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L19" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M19" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N19" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O19" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P19" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q19" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R19" t="n">
         <v>211.6331360021768</v>
@@ -23992,31 +23992,31 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J20" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K20" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L20" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M20" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O20" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P20" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q20" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R20" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S20" t="n">
         <v>236.785106778059</v>
@@ -24068,10 +24068,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I21" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J21" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K21" t="n">
         <v>168.166555548718</v>
@@ -24089,13 +24089,13 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R21" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S21" t="n">
         <v>195.63287444794</v>
@@ -24150,28 +24150,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J22" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K22" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L22" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M22" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N22" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O22" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P22" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q22" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R22" t="n">
         <v>211.6331360021768</v>
@@ -24232,10 +24232,10 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K23" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L23" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M23" t="n">
         <v>281.0224045372727</v>
@@ -24244,16 +24244,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O23" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P23" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q23" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R23" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S23" t="n">
         <v>236.785106778059</v>
@@ -24305,10 +24305,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I24" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J24" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K24" t="n">
         <v>168.166555548718</v>
@@ -24326,13 +24326,13 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R24" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S24" t="n">
         <v>195.63287444794</v>
@@ -24387,28 +24387,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J25" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K25" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L25" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M25" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N25" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O25" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P25" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q25" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R25" t="n">
         <v>211.6331360021768</v>
@@ -24466,13 +24466,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J26" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K26" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L26" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M26" t="n">
         <v>281.0224045372727</v>
@@ -24487,10 +24487,10 @@
         <v>282.1042548214289</v>
       </c>
       <c r="Q26" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R26" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S26" t="n">
         <v>236.785106778059</v>
@@ -24542,7 +24542,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I27" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J27" t="n">
         <v>154.7419045333334</v>
@@ -24551,7 +24551,7 @@
         <v>168.166555548718</v>
       </c>
       <c r="L27" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>173.4035213848624</v>
@@ -24560,16 +24560,16 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R27" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S27" t="n">
         <v>195.63287444794</v>
@@ -24624,28 +24624,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J28" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K28" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L28" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M28" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N28" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O28" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P28" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q28" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R28" t="n">
         <v>211.6331360021768</v>
@@ -24703,13 +24703,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J29" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K29" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L29" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M29" t="n">
         <v>281.0224045372727</v>
@@ -24718,16 +24718,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O29" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P29" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q29" t="n">
         <v>271.2129416468284</v>
       </c>
       <c r="R29" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S29" t="n">
         <v>236.785106778059</v>
@@ -24779,16 +24779,16 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I30" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J30" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K30" t="n">
         <v>168.166555548718</v>
       </c>
       <c r="L30" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>173.4035213848624</v>
@@ -24800,13 +24800,13 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R30" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S30" t="n">
         <v>195.63287444794</v>
@@ -24861,28 +24861,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J31" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K31" t="n">
         <v>157.3961749680531</v>
       </c>
       <c r="L31" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M31" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N31" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O31" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P31" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q31" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R31" t="n">
         <v>211.6331360021768</v>
@@ -24940,13 +24940,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J32" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K32" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L32" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M32" t="n">
         <v>281.0224045372727</v>
@@ -24955,16 +24955,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O32" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P32" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q32" t="n">
         <v>271.2129416468284</v>
       </c>
       <c r="R32" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S32" t="n">
         <v>236.785106778059</v>
@@ -25016,16 +25016,16 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I33" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J33" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K33" t="n">
         <v>168.166555548718</v>
       </c>
       <c r="L33" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>173.4035213848624</v>
@@ -25040,10 +25040,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q33" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R33" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S33" t="n">
         <v>195.63287444794</v>
@@ -25098,28 +25098,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J34" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K34" t="n">
         <v>157.3961749680531</v>
       </c>
       <c r="L34" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M34" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N34" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O34" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P34" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q34" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R34" t="n">
         <v>211.6331360021768</v>
@@ -25180,10 +25180,10 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K35" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L35" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M35" t="n">
         <v>281.0224045372727</v>
@@ -25192,16 +25192,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P35" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q35" t="n">
         <v>271.2129416468284</v>
       </c>
       <c r="R35" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S35" t="n">
         <v>236.785106778059</v>
@@ -25253,7 +25253,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I36" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J36" t="n">
         <v>154.7419045333334</v>
@@ -25277,7 +25277,7 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q36" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R36" t="n">
         <v>177.728994836036</v>
@@ -25335,28 +25335,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J37" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K37" t="n">
         <v>157.3961749680531</v>
       </c>
       <c r="L37" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M37" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N37" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O37" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P37" t="n">
         <v>168.0281649399601</v>
       </c>
       <c r="Q37" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R37" t="n">
         <v>211.6331360021768</v>
@@ -25414,31 +25414,31 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J38" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K38" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L38" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M38" t="n">
         <v>281.0224045372727</v>
       </c>
       <c r="N38" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P38" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q38" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R38" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S38" t="n">
         <v>236.785106778059</v>
@@ -25490,10 +25490,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I39" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J39" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K39" t="n">
         <v>168.166555548718</v>
@@ -25502,7 +25502,7 @@
         <v>169.0363433314465</v>
       </c>
       <c r="M39" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>160.2368887416667</v>
@@ -25514,10 +25514,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q39" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R39" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S39" t="n">
         <v>195.63287444794</v>
@@ -25572,28 +25572,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J40" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K40" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L40" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M40" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N40" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O40" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P40" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q40" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R40" t="n">
         <v>211.6331360021768</v>
@@ -25654,28 +25654,28 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K41" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L41" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M41" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O41" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P41" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q41" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R41" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S41" t="n">
         <v>236.785106778059</v>
@@ -25727,7 +25727,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I42" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J42" t="n">
         <v>154.7419045333334</v>
@@ -25736,10 +25736,10 @@
         <v>168.166555548718</v>
       </c>
       <c r="L42" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>160.2368887416667</v>
@@ -25751,10 +25751,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R42" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S42" t="n">
         <v>195.63287444794</v>
@@ -25809,28 +25809,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J43" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K43" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L43" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M43" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N43" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O43" t="n">
         <v>168.9169769112482</v>
       </c>
       <c r="P43" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q43" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R43" t="n">
         <v>211.6331360021768</v>
@@ -25888,31 +25888,31 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J44" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K44" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L44" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M44" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P44" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q44" t="n">
         <v>271.2129416468284</v>
       </c>
       <c r="R44" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S44" t="n">
         <v>236.785106778059</v>
@@ -25964,7 +25964,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I45" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J45" t="n">
         <v>154.7419045333334</v>
@@ -25988,10 +25988,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q45" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R45" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S45" t="n">
         <v>195.63287444794</v>
@@ -26046,28 +26046,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J46" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K46" t="n">
         <v>157.3961749680531</v>
       </c>
       <c r="L46" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M46" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N46" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O46" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P46" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q46" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R46" t="n">
         <v>211.6331360021768</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>284853.8251692975</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>321845.6407653079</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>333232.6471891871</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>323962.6939824701</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>245374.4838560396</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>324559.4807063688</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>272358.4641939862</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>217171.0124859497</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>187990.9159031369</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>222989.1492351897</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>210687.9942747466</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>170388.4029467473</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>272946.8042576826</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>259697.5365542524</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.837623469531536e-11</v>
+        <v>231522.7064775153</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20060.12853304913</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22665.18596938789</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>23467.08783022445</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>22814.27422411762</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17279.89322929857</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>22856.30145819499</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>19180.17353478777</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>15293.73327365844</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>13238.79689458712</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15703.46121374576</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>14837.1826954047</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>11999.18330610897</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>19221.60593363963</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>18288.55891227131</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>16304.4159491208</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>24072.15423965894</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>27198.22316326546</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28160.50539626933</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>27377.12906894113</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>20735.87187515827</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>27427.56174983398</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>23016.20824174531</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>18352.47992839012</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15886.55627350453</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18844.15345649491</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>17804.61923448564</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14399.01996733077</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>23065.92712036755</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>21946.27069472556</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>19565.29913894495</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-22092.96372146338</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
     </row>
   </sheetData>
